--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,15 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -73,235 +73,238 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>great</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>gift</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>big</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3737373737373738</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3565891472868217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8777089783281734</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3076923076923077</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7534246575342466</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2054054054054054</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1002,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1063,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7016949152542373</v>
+        <v>0.6829855537720706</v>
       </c>
       <c r="L10">
-        <v>207</v>
+        <v>851</v>
       </c>
       <c r="M10">
-        <v>207</v>
+        <v>851</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1089,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1115,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6764705882352942</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1141,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6685714285714286</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1167,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6613162118780096</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L14">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>422</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1193,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1219,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1242,13 +1245,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6239316239316239</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1294,13 +1297,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6057692307692307</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1320,13 +1323,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5808383233532934</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1346,13 +1349,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5662650602409639</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1372,13 +1375,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1398,13 +1401,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5492957746478874</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1424,13 +1427,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5488721804511278</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1450,13 +1453,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5263157894736842</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1476,13 +1479,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1502,13 +1505,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4868421052631579</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1528,13 +1531,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.459016393442623</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1554,13 +1557,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4397590361445783</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1580,13 +1583,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4264705882352941</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L30">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1606,13 +1609,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4202334630350195</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1632,7 +1635,7 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4153846153846154</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L32">
         <v>27</v>
@@ -1650,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1658,13 +1661,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4153846153846154</v>
+        <v>0.4387254901960784</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1684,13 +1687,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.41</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1710,13 +1713,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3963963963963964</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>67</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1736,13 +1739,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3815789473684211</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1762,13 +1765,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3779904306220095</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L37">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1780,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1788,13 +1791,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3767123287671233</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="L38">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>455</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1814,13 +1817,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3709677419354839</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1832,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1840,13 +1843,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3533834586466165</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="L40">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="M40">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1858,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>86</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1866,25 +1869,25 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3373493975903614</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1892,13 +1895,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3196986006458558</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="L42">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M42">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1907,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1918,13 +1921,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.316546762589928</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1944,13 +1947,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3148148148148148</v>
+        <v>0.31</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1970,7 +1973,7 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.308641975308642</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L45">
         <v>25</v>
@@ -1988,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1996,13 +1999,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2980132450331126</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2014,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2022,13 +2025,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2852664576802508</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L47">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>228</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2048,25 +2051,25 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2794701986754967</v>
+        <v>0.2807570977917981</v>
       </c>
       <c r="L48">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="M48">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>544</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2074,13 +2077,13 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2647058823529412</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L49">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2092,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2100,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2432432432432433</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2126,7 +2129,7 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2377049180327869</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L51">
         <v>29</v>
@@ -2144,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2152,13 +2155,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2376237623762376</v>
+        <v>0.2679045092838196</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2167,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>77</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2178,25 +2181,25 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2158469945355191</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L53">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>287</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2204,13 +2207,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.206140350877193</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L54">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>362</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2230,25 +2233,25 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1964285714285714</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2256,25 +2259,25 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1937799043062201</v>
+        <v>0.2130584192439862</v>
       </c>
       <c r="L56">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M56">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="N56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>337</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2282,25 +2285,25 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1926829268292683</v>
+        <v>0.2119565217391304</v>
       </c>
       <c r="L57">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M57">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2308,13 +2311,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1923076923076923</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2326,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2334,13 +2337,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1858974358974359</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2352,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2360,25 +2363,25 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1856540084388186</v>
+        <v>0.1957040572792363</v>
       </c>
       <c r="L60">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="M60">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>193</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2386,13 +2389,13 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1818181818181818</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L61">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M61">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2404,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2412,13 +2415,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1812080536912752</v>
+        <v>0.1849148418491484</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2430,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>122</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2438,25 +2441,25 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1786941580756014</v>
+        <v>0.1799544419134396</v>
       </c>
       <c r="L63">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="M63">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>239</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2464,25 +2467,25 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1768292682926829</v>
+        <v>0.1784386617100372</v>
       </c>
       <c r="L64">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M64">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2490,13 +2493,13 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1705426356589147</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2508,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2516,13 +2519,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1666666666666667</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L66">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>225</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2542,25 +2545,25 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1666666666666667</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L67">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>225</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2568,25 +2571,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1604938271604938</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M68">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2594,25 +2597,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1468926553672316</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M69">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2620,13 +2623,13 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1393939393939394</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2638,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>142</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2646,25 +2649,25 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1336633663366337</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>175</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2672,25 +2675,25 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1284153005464481</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L72">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>319</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2698,13 +2701,13 @@
         <v>85</v>
       </c>
       <c r="K73">
-        <v>0.125</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2716,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2724,25 +2727,25 @@
         <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1161048689138577</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L74">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>944</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2750,25 +2753,25 @@
         <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1147776183644189</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L75">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>617</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2776,13 +2779,13 @@
         <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1017811704834606</v>
+        <v>0.114018691588785</v>
       </c>
       <c r="L76">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="M76">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="N76">
         <v>0.98</v>
@@ -2794,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>353</v>
+        <v>948</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2802,25 +2805,25 @@
         <v>89</v>
       </c>
       <c r="K77">
-        <v>0.09926470588235294</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="L77">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2828,25 +2831,25 @@
         <v>90</v>
       </c>
       <c r="K78">
-        <v>0.09166666666666666</v>
+        <v>0.09116022099447514</v>
       </c>
       <c r="L78">
         <v>33</v>
       </c>
       <c r="M78">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N78">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="O78">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2854,25 +2857,25 @@
         <v>91</v>
       </c>
       <c r="K79">
-        <v>0.08631211857018309</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="L79">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N79">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1048</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2880,25 +2883,25 @@
         <v>92</v>
       </c>
       <c r="K80">
-        <v>0.07766990291262135</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L80">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N80">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>475</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2906,25 +2909,25 @@
         <v>93</v>
       </c>
       <c r="K81">
-        <v>0.07380073800738007</v>
+        <v>0.0805892547660312</v>
       </c>
       <c r="L81">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M81">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>502</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2932,25 +2935,25 @@
         <v>94</v>
       </c>
       <c r="K82">
-        <v>0.06796116504854369</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="L82">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N82">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>384</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2958,25 +2961,25 @@
         <v>95</v>
       </c>
       <c r="K83">
-        <v>0.06336088154269973</v>
+        <v>0.07543520309477757</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M83">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N83">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O83">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>340</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2984,25 +2987,51 @@
         <v>96</v>
       </c>
       <c r="K84">
-        <v>0.04122340425531915</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="L84">
+        <v>27</v>
+      </c>
+      <c r="M84">
         <v>31</v>
       </c>
-      <c r="M84">
-        <v>46</v>
-      </c>
       <c r="N84">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="O84">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>721</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85">
+        <v>0.03978779840848806</v>
+      </c>
+      <c r="L85">
+        <v>30</v>
+      </c>
+      <c r="M85">
+        <v>43</v>
+      </c>
+      <c r="N85">
+        <v>0.7</v>
+      </c>
+      <c r="O85">
+        <v>0.3</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
